--- a/Dragon_details.xlsx
+++ b/Dragon_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shashi.r.singh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1116FB9B-5AA3-4480-9B8F-E8468DF83A92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E921C940-4395-42A4-A8F0-4AAAC1193571}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B961BDDB-BBC7-4FEC-ADF3-4E28954E4F49}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{B961BDDB-BBC7-4FEC-ADF3-4E28954E4F49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -54,25 +54,10 @@
     <t>Goku</t>
   </si>
   <si>
-    <t>gohan</t>
-  </si>
-  <si>
-    <t>vegeta</t>
-  </si>
-  <si>
-    <t>goten</t>
-  </si>
-  <si>
-    <t>trunks</t>
-  </si>
-  <si>
-    <t>yamcha</t>
-  </si>
-  <si>
-    <t>pikolo</t>
-  </si>
-  <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Loss</t>
   </si>
 </sst>
 </file>
@@ -96,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,11 +104,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -132,6 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCE20BD-984D-41FE-88A7-15CA07C4155D}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H3" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,10 +471,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -497,15 +497,19 @@
         <v>72</v>
       </c>
       <c r="G2" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2001</v>
+      </c>
+      <c r="H2">
+        <f>C2-D2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>275</v>
@@ -520,15 +524,19 @@
         <v>68</v>
       </c>
       <c r="G3" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2002</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="0">C3-D3</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>2800</v>
@@ -543,15 +551,19 @@
         <v>71</v>
       </c>
       <c r="G4" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2003</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>200</v>
@@ -566,15 +578,19 @@
         <v>65</v>
       </c>
       <c r="G5" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2009</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>700</v>
@@ -589,15 +605,19 @@
         <v>70</v>
       </c>
       <c r="G6" s="3">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>720</v>
@@ -612,15 +632,19 @@
         <v>71</v>
       </c>
       <c r="G7" s="3">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2006</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>1500</v>
@@ -635,10 +659,14 @@
         <v>71</v>
       </c>
       <c r="G8" s="3">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2007</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
     </row>
   </sheetData>

--- a/Dragon_details.xlsx
+++ b/Dragon_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shashi.r.singh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E921C940-4395-42A4-A8F0-4AAAC1193571}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F63094-7C3A-4889-ABF3-548C81BC9494}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{B961BDDB-BBC7-4FEC-ADF3-4E28954E4F49}"/>
   </bookViews>
